--- a/ExperimentalData/Induced EMF/Induced Rectangular 2015-12-10.xlsx
+++ b/ExperimentalData/Induced EMF/Induced Rectangular 2015-12-10.xlsx
@@ -3273,7 +3273,7 @@
   <dimension ref="B1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="I6" activeCellId="2" sqref="C20 I5 I6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
